--- a/sample_inputs/FY22_INEP_Staff_List.xlsx
+++ b/sample_inputs/FY22_INEP_Staff_List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jstadni2\Box\FCS Data Analyst\GitHub Repos\replace_pears_sensitive_data\cleaned_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jstadni2\Box\FCS Data Analyst\GitHub Repos\pears_staff_report\sample_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC01095-409D-4E63-9EE4-098F1B5A8780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EE8340-FE19-4662-B06F-F52F52ED2E09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="407">
   <si>
     <t>UNIT #</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>Greenwood</t>
-  </si>
-  <si>
-    <t>14265, User/Durriyyah Kemp/Susan Gasper</t>
   </si>
   <si>
     <t>14428, User</t>
@@ -1961,7 +1958,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2296,7 +2293,7 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2316,10 +2313,10 @@
         <v>57</v>
       </c>
       <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
         <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
       </c>
       <c r="H11" t="s">
         <v>37</v>
@@ -2328,7 +2325,7 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2348,10 +2345,10 @@
         <v>59</v>
       </c>
       <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
         <v>41</v>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
       </c>
       <c r="H12" t="s">
         <v>37</v>
@@ -2360,7 +2357,7 @@
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2380,10 +2377,10 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
         <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>44</v>
       </c>
       <c r="H13" t="s">
         <v>37</v>
@@ -2392,7 +2389,7 @@
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2403,7 +2400,7 @@
         <v>384712</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2412,19 +2409,19 @@
         <v>67</v>
       </c>
       <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
         <v>46</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>47</v>
-      </c>
-      <c r="H14" t="s">
-        <v>48</v>
       </c>
       <c r="I14" t="s">
         <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2435,7 +2432,7 @@
         <v>384712</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2444,19 +2441,19 @@
         <v>67</v>
       </c>
       <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
         <v>49</v>
       </c>
-      <c r="G15" t="s">
-        <v>50</v>
-      </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2467,7 +2464,7 @@
         <v>384712</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2476,19 +2473,19 @@
         <v>67</v>
       </c>
       <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
         <v>51</v>
       </c>
-      <c r="G16" t="s">
-        <v>52</v>
-      </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2499,7 +2496,7 @@
         <v>384712</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2508,19 +2505,19 @@
         <v>67</v>
       </c>
       <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
         <v>54</v>
       </c>
-      <c r="G17" t="s">
-        <v>55</v>
-      </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
         <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2540,19 +2537,19 @@
         <v>56</v>
       </c>
       <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
         <v>56</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>57</v>
-      </c>
-      <c r="H18" t="s">
-        <v>58</v>
       </c>
       <c r="I18" t="s">
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>38</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2572,19 +2569,19 @@
         <v>58</v>
       </c>
       <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
         <v>59</v>
       </c>
-      <c r="G19" t="s">
-        <v>60</v>
-      </c>
       <c r="H19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" t="s">
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>38</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2604,19 +2601,19 @@
         <v>60</v>
       </c>
       <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
         <v>61</v>
       </c>
-      <c r="G20" t="s">
-        <v>62</v>
-      </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I20" t="s">
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2627,7 +2624,7 @@
         <v>384712</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2636,19 +2633,19 @@
         <v>54</v>
       </c>
       <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
         <v>64</v>
       </c>
-      <c r="G21" t="s">
-        <v>65</v>
-      </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I21" t="s">
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2668,19 +2665,19 @@
         <v>92</v>
       </c>
       <c r="F22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" t="s">
         <v>66</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>67</v>
-      </c>
-      <c r="H22" t="s">
-        <v>68</v>
       </c>
       <c r="I22" t="s">
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2700,19 +2697,19 @@
         <v>91</v>
       </c>
       <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" t="s">
         <v>70</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>71</v>
-      </c>
-      <c r="H23" t="s">
-        <v>72</v>
       </c>
       <c r="I23" t="s">
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2732,19 +2729,19 @@
         <v>93</v>
       </c>
       <c r="F24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" t="s">
         <v>73</v>
       </c>
-      <c r="G24" t="s">
-        <v>74</v>
-      </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" t="s">
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2764,19 +2761,19 @@
         <v>89</v>
       </c>
       <c r="F25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" t="s">
         <v>75</v>
       </c>
-      <c r="G25" t="s">
-        <v>76</v>
-      </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I25" t="s">
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2796,19 +2793,19 @@
         <v>118</v>
       </c>
       <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s">
         <v>77</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>78</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>79</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>80</v>
-      </c>
-      <c r="J26" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2828,19 +2825,19 @@
         <v>119</v>
       </c>
       <c r="F27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" t="s">
         <v>82</v>
       </c>
-      <c r="G27" t="s">
-        <v>83</v>
-      </c>
       <c r="H27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s">
         <v>79</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>80</v>
-      </c>
-      <c r="J27" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2860,19 +2857,19 @@
         <v>128</v>
       </c>
       <c r="F28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s">
         <v>84</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>85</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" t="s">
         <v>86</v>
-      </c>
-      <c r="I28" t="s">
-        <v>80</v>
-      </c>
-      <c r="J28" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2892,19 +2889,19 @@
         <v>122</v>
       </c>
       <c r="F29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" t="s">
         <v>88</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>89</v>
       </c>
-      <c r="H29" t="s">
-        <v>90</v>
-      </c>
       <c r="I29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2924,19 +2921,19 @@
         <v>127</v>
       </c>
       <c r="F30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" t="s">
         <v>91</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>92</v>
       </c>
-      <c r="H30" t="s">
-        <v>93</v>
-      </c>
       <c r="I30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2956,19 +2953,19 @@
         <v>124</v>
       </c>
       <c r="F31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" t="s">
         <v>95</v>
       </c>
-      <c r="G31" t="s">
-        <v>96</v>
-      </c>
       <c r="H31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2988,19 +2985,19 @@
         <v>149</v>
       </c>
       <c r="F32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" t="s">
         <v>97</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>98</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
+        <v>79</v>
+      </c>
+      <c r="J32" t="s">
         <v>99</v>
-      </c>
-      <c r="I32" t="s">
-        <v>80</v>
-      </c>
-      <c r="J32" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3020,19 +3017,19 @@
         <v>151</v>
       </c>
       <c r="F33" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" t="s">
         <v>101</v>
       </c>
-      <c r="G33" t="s">
-        <v>102</v>
-      </c>
       <c r="H33" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" t="s">
+        <v>79</v>
+      </c>
+      <c r="J33" t="s">
         <v>99</v>
-      </c>
-      <c r="I33" t="s">
-        <v>80</v>
-      </c>
-      <c r="J33" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3052,19 +3049,19 @@
         <v>155</v>
       </c>
       <c r="F34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" t="s">
         <v>103</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>104</v>
       </c>
-      <c r="H34" t="s">
-        <v>105</v>
-      </c>
       <c r="I34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3084,19 +3081,19 @@
         <v>164</v>
       </c>
       <c r="F35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" t="s">
         <v>106</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>107</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
+        <v>79</v>
+      </c>
+      <c r="J35" t="s">
         <v>108</v>
-      </c>
-      <c r="I35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J35" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3116,19 +3113,19 @@
         <v>162</v>
       </c>
       <c r="F36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" t="s">
         <v>110</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>111</v>
       </c>
-      <c r="H36" t="s">
-        <v>112</v>
-      </c>
       <c r="I36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3148,19 +3145,19 @@
         <v>167</v>
       </c>
       <c r="F37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" t="s">
         <v>113</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>114</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
+        <v>79</v>
+      </c>
+      <c r="J37" t="s">
         <v>115</v>
-      </c>
-      <c r="I37" t="s">
-        <v>80</v>
-      </c>
-      <c r="J37" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3180,19 +3177,19 @@
         <v>171</v>
       </c>
       <c r="F38" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" t="s">
         <v>117</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>118</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
+        <v>79</v>
+      </c>
+      <c r="J38" t="s">
         <v>119</v>
-      </c>
-      <c r="I38" t="s">
-        <v>80</v>
-      </c>
-      <c r="J38" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3212,19 +3209,19 @@
         <v>170</v>
       </c>
       <c r="F39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" t="s">
         <v>121</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>122</v>
       </c>
-      <c r="H39" t="s">
-        <v>123</v>
-      </c>
       <c r="I39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3244,19 +3241,19 @@
         <v>174</v>
       </c>
       <c r="F40" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" t="s">
         <v>124</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>125</v>
       </c>
-      <c r="H40" t="s">
-        <v>126</v>
-      </c>
       <c r="I40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3276,19 +3273,19 @@
         <v>175</v>
       </c>
       <c r="F41" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" t="s">
         <v>127</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>128</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>129</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>130</v>
-      </c>
-      <c r="J41" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3308,19 +3305,19 @@
         <v>177</v>
       </c>
       <c r="F42" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" t="s">
         <v>132</v>
       </c>
-      <c r="G42" t="s">
-        <v>133</v>
-      </c>
       <c r="H42" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42" t="s">
         <v>129</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>130</v>
-      </c>
-      <c r="J42" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3340,19 +3337,19 @@
         <v>180</v>
       </c>
       <c r="F43" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" t="s">
         <v>134</v>
       </c>
-      <c r="G43" t="s">
-        <v>135</v>
-      </c>
       <c r="H43" t="s">
+        <v>128</v>
+      </c>
+      <c r="I43" t="s">
         <v>129</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>130</v>
-      </c>
-      <c r="J43" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3372,19 +3369,19 @@
         <v>182</v>
       </c>
       <c r="F44" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44" t="s">
         <v>136</v>
       </c>
-      <c r="G44" t="s">
-        <v>137</v>
-      </c>
       <c r="H44" t="s">
+        <v>128</v>
+      </c>
+      <c r="I44" t="s">
         <v>129</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>130</v>
-      </c>
-      <c r="J44" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3404,19 +3401,19 @@
         <v>183</v>
       </c>
       <c r="F45" t="s">
+        <v>137</v>
+      </c>
+      <c r="G45" t="s">
         <v>138</v>
       </c>
-      <c r="G45" t="s">
-        <v>139</v>
-      </c>
       <c r="H45" t="s">
+        <v>128</v>
+      </c>
+      <c r="I45" t="s">
         <v>129</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>130</v>
-      </c>
-      <c r="J45" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3436,19 +3433,19 @@
         <v>185</v>
       </c>
       <c r="F46" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" t="s">
         <v>140</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>141</v>
       </c>
-      <c r="H46" t="s">
-        <v>142</v>
-      </c>
       <c r="I46" t="s">
+        <v>129</v>
+      </c>
+      <c r="J46" t="s">
         <v>130</v>
-      </c>
-      <c r="J46" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3468,19 +3465,19 @@
         <v>190</v>
       </c>
       <c r="F47" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" t="s">
         <v>143</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>144</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
+        <v>129</v>
+      </c>
+      <c r="J47" t="s">
         <v>145</v>
-      </c>
-      <c r="I47" t="s">
-        <v>130</v>
-      </c>
-      <c r="J47" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3500,19 +3497,19 @@
         <v>188</v>
       </c>
       <c r="F48" t="s">
+        <v>146</v>
+      </c>
+      <c r="G48" t="s">
         <v>147</v>
       </c>
-      <c r="G48" t="s">
-        <v>148</v>
-      </c>
       <c r="H48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I48" t="s">
+        <v>129</v>
+      </c>
+      <c r="J48" t="s">
         <v>145</v>
-      </c>
-      <c r="I48" t="s">
-        <v>130</v>
-      </c>
-      <c r="J48" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3532,19 +3529,19 @@
         <v>191</v>
       </c>
       <c r="F49" t="s">
+        <v>148</v>
+      </c>
+      <c r="G49" t="s">
         <v>149</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>150</v>
       </c>
-      <c r="H49" t="s">
-        <v>151</v>
-      </c>
       <c r="I49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3564,19 +3561,19 @@
         <v>195</v>
       </c>
       <c r="F50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G50" t="s">
+        <v>151</v>
+      </c>
+      <c r="H50" t="s">
         <v>152</v>
       </c>
-      <c r="H50" t="s">
-        <v>153</v>
-      </c>
       <c r="I50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3596,19 +3593,19 @@
         <v>205</v>
       </c>
       <c r="F51" t="s">
+        <v>153</v>
+      </c>
+      <c r="G51" t="s">
         <v>154</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>155</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
+        <v>129</v>
+      </c>
+      <c r="J51" t="s">
         <v>156</v>
-      </c>
-      <c r="I51" t="s">
-        <v>130</v>
-      </c>
-      <c r="J51" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3628,19 +3625,19 @@
         <v>204</v>
       </c>
       <c r="F52" t="s">
+        <v>157</v>
+      </c>
+      <c r="G52" t="s">
         <v>158</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>159</v>
       </c>
-      <c r="H52" t="s">
-        <v>160</v>
-      </c>
       <c r="I52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3660,19 +3657,19 @@
         <v>203</v>
       </c>
       <c r="F53" t="s">
+        <v>160</v>
+      </c>
+      <c r="G53" t="s">
         <v>161</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>162</v>
       </c>
-      <c r="H53" t="s">
-        <v>163</v>
-      </c>
       <c r="I53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3692,19 +3689,19 @@
         <v>206</v>
       </c>
       <c r="F54" t="s">
+        <v>163</v>
+      </c>
+      <c r="G54" t="s">
         <v>164</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>165</v>
       </c>
-      <c r="H54" t="s">
-        <v>166</v>
-      </c>
       <c r="I54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3724,19 +3721,19 @@
         <v>218</v>
       </c>
       <c r="F55" t="s">
+        <v>166</v>
+      </c>
+      <c r="G55" t="s">
         <v>167</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>168</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
+        <v>129</v>
+      </c>
+      <c r="J55" t="s">
         <v>169</v>
-      </c>
-      <c r="I55" t="s">
-        <v>130</v>
-      </c>
-      <c r="J55" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3756,19 +3753,19 @@
         <v>210</v>
       </c>
       <c r="F56" t="s">
+        <v>170</v>
+      </c>
+      <c r="G56" t="s">
         <v>171</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>172</v>
       </c>
-      <c r="H56" t="s">
-        <v>173</v>
-      </c>
       <c r="I56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3788,19 +3785,19 @@
         <v>208</v>
       </c>
       <c r="F57" t="s">
+        <v>173</v>
+      </c>
+      <c r="G57" t="s">
         <v>174</v>
       </c>
-      <c r="G57" t="s">
-        <v>175</v>
-      </c>
       <c r="H57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3820,19 +3817,19 @@
         <v>211</v>
       </c>
       <c r="F58" t="s">
+        <v>175</v>
+      </c>
+      <c r="G58" t="s">
         <v>176</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>177</v>
       </c>
-      <c r="H58" t="s">
-        <v>178</v>
-      </c>
       <c r="I58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3852,19 +3849,19 @@
         <v>209</v>
       </c>
       <c r="F59" t="s">
+        <v>178</v>
+      </c>
+      <c r="G59" t="s">
         <v>179</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>180</v>
       </c>
-      <c r="H59" t="s">
-        <v>181</v>
-      </c>
       <c r="I59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3884,19 +3881,19 @@
         <v>222</v>
       </c>
       <c r="F60" t="s">
+        <v>181</v>
+      </c>
+      <c r="G60" t="s">
         <v>182</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>183</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
+        <v>129</v>
+      </c>
+      <c r="J60" t="s">
         <v>184</v>
-      </c>
-      <c r="I60" t="s">
-        <v>130</v>
-      </c>
-      <c r="J60" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3916,19 +3913,19 @@
         <v>220</v>
       </c>
       <c r="F61" t="s">
+        <v>185</v>
+      </c>
+      <c r="G61" t="s">
         <v>186</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>187</v>
       </c>
-      <c r="H61" t="s">
-        <v>188</v>
-      </c>
       <c r="I61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3948,19 +3945,19 @@
         <v>221</v>
       </c>
       <c r="F62" t="s">
+        <v>188</v>
+      </c>
+      <c r="G62" t="s">
         <v>189</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>190</v>
       </c>
-      <c r="H62" t="s">
-        <v>191</v>
-      </c>
       <c r="I62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4685,7 +4682,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -4720,10 +4717,10 @@
         <v>0.16</v>
       </c>
       <c r="F2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" t="s">
         <v>193</v>
-      </c>
-      <c r="G2" t="s">
-        <v>194</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -4749,13 +4746,13 @@
         <v>0.25</v>
       </c>
       <c r="F3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" t="s">
         <v>195</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>196</v>
-      </c>
-      <c r="H3" t="s">
-        <v>197</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -4772,25 +4769,25 @@
         <v>384821</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D4">
         <v>0.5</v>
       </c>
       <c r="F4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" t="s">
         <v>199</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>200</v>
       </c>
-      <c r="H4" t="s">
-        <v>201</v>
-      </c>
       <c r="I4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4828,7 +4825,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4851,7 +4848,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -4871,13 +4868,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" t="s">
         <v>203</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>204</v>
-      </c>
-      <c r="F2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4888,13 +4885,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" t="s">
         <v>206</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>207</v>
-      </c>
-      <c r="F3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4905,13 +4902,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" t="s">
         <v>209</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>210</v>
-      </c>
-      <c r="F4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4922,13 +4919,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4936,13 +4933,13 @@
         <v>384509</v>
       </c>
       <c r="D6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" t="s">
         <v>213</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>214</v>
-      </c>
-      <c r="F6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4953,13 +4950,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" t="s">
         <v>216</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>217</v>
-      </c>
-      <c r="F7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4970,13 +4967,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" t="s">
         <v>219</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>220</v>
-      </c>
-      <c r="F8" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4987,13 +4984,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" t="s">
         <v>222</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>223</v>
-      </c>
-      <c r="F9" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5004,13 +5001,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" t="s">
         <v>225</v>
-      </c>
-      <c r="E10" t="s">
-        <v>210</v>
-      </c>
-      <c r="F10" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5021,13 +5018,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" t="s">
         <v>227</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>228</v>
-      </c>
-      <c r="F11" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5038,13 +5035,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" t="s">
         <v>230</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>231</v>
-      </c>
-      <c r="F12" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5106,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5120,13 +5117,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E2">
         <v>384710</v>
       </c>
       <c r="F2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5137,16 +5134,16 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" t="s">
         <v>236</v>
-      </c>
-      <c r="D3" t="s">
-        <v>237</v>
       </c>
       <c r="E3">
         <v>384712</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5157,16 +5154,16 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" t="s">
         <v>239</v>
-      </c>
-      <c r="D4" t="s">
-        <v>240</v>
       </c>
       <c r="E4">
         <v>384712</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5177,16 +5174,16 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" t="s">
         <v>241</v>
-      </c>
-      <c r="D5" t="s">
-        <v>242</v>
       </c>
       <c r="E5">
         <v>384712</v>
       </c>
       <c r="F5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5197,16 +5194,16 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" t="s">
         <v>243</v>
-      </c>
-      <c r="D6" t="s">
-        <v>244</v>
       </c>
       <c r="E6">
         <v>384713</v>
       </c>
       <c r="F6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5214,19 +5211,19 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
         <v>80</v>
       </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E7">
         <v>384611</v>
       </c>
       <c r="F7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5234,19 +5231,19 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E8">
         <v>384811</v>
       </c>
       <c r="F8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5254,19 +5251,19 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E9">
         <v>384812</v>
       </c>
       <c r="F9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5274,19 +5271,19 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E10">
         <v>384814</v>
       </c>
       <c r="F10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -5294,19 +5291,19 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E11">
         <v>384815</v>
       </c>
       <c r="F11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5314,19 +5311,19 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" t="s">
         <v>256</v>
-      </c>
-      <c r="D12" t="s">
-        <v>257</v>
       </c>
       <c r="E12">
         <v>384816</v>
       </c>
       <c r="F12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5334,19 +5331,19 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E13">
         <v>384819</v>
       </c>
       <c r="F13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5354,19 +5351,19 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E14">
         <v>384820</v>
       </c>
       <c r="F14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5374,19 +5371,19 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E15">
         <v>384821</v>
       </c>
       <c r="F15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5432,19 +5429,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5455,22 +5452,22 @@
         <v>384714</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>268</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>269</v>
-      </c>
-      <c r="H2" t="s">
-        <v>270</v>
       </c>
       <c r="I2">
         <v>44448</v>
@@ -5484,22 +5481,22 @@
         <v>384714</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H3" t="s">
         <v>269</v>
-      </c>
-      <c r="H3" t="s">
-        <v>270</v>
       </c>
       <c r="I3">
         <v>44456</v>
@@ -5513,22 +5510,22 @@
         <v>384715</v>
       </c>
       <c r="C4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H4" t="s">
         <v>274</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H4" t="s">
-        <v>275</v>
       </c>
       <c r="I4">
         <v>44680</v>
@@ -5542,22 +5539,22 @@
         <v>384715</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H5" t="s">
         <v>277</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>269</v>
-      </c>
-      <c r="H5" t="s">
-        <v>278</v>
       </c>
       <c r="I5">
         <v>44330</v>
@@ -5571,19 +5568,19 @@
         <v>384710</v>
       </c>
       <c r="C6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -5600,22 +5597,22 @@
         <v>384612</v>
       </c>
       <c r="C7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H7" t="s">
         <v>282</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H7" t="s">
-        <v>283</v>
       </c>
       <c r="I7">
         <v>44518</v>
@@ -5629,22 +5626,22 @@
         <v>384612</v>
       </c>
       <c r="C8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" t="s">
         <v>284</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>285</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>268</v>
+      </c>
+      <c r="H8" t="s">
         <v>286</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>269</v>
-      </c>
-      <c r="H8" t="s">
-        <v>287</v>
       </c>
       <c r="I8">
         <v>44673</v>
@@ -5658,22 +5655,22 @@
         <v>384711</v>
       </c>
       <c r="C9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>268</v>
+      </c>
+      <c r="H9" t="s">
         <v>289</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>269</v>
-      </c>
-      <c r="H9" t="s">
-        <v>290</v>
       </c>
       <c r="I9">
         <v>44470</v>
@@ -5687,22 +5684,22 @@
         <v>384735</v>
       </c>
       <c r="C10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
         <v>292</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>293</v>
-      </c>
-      <c r="H10" t="s">
-        <v>294</v>
       </c>
       <c r="I10">
         <v>44594</v>
@@ -5716,22 +5713,22 @@
         <v>384735</v>
       </c>
       <c r="C11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
+        <v>292</v>
+      </c>
+      <c r="H11" t="s">
         <v>293</v>
-      </c>
-      <c r="H11" t="s">
-        <v>294</v>
       </c>
       <c r="I11">
         <v>44490</v>
@@ -5745,22 +5742,22 @@
         <v>384613</v>
       </c>
       <c r="C12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>268</v>
+      </c>
+      <c r="H12" t="s">
         <v>298</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>269</v>
-      </c>
-      <c r="H12" t="s">
-        <v>299</v>
       </c>
       <c r="I12">
         <v>44427</v>
@@ -5774,22 +5771,22 @@
         <v>384613</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I13">
         <v>44410</v>
@@ -5803,22 +5800,22 @@
         <v>384816</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
       <c r="E14" t="s">
+        <v>302</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>268</v>
+      </c>
+      <c r="H14" t="s">
         <v>303</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>269</v>
-      </c>
-      <c r="H14" t="s">
-        <v>304</v>
       </c>
       <c r="I14">
         <v>44414</v>
@@ -5832,22 +5829,22 @@
         <v>384615</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
+        <v>305</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>268</v>
+      </c>
+      <c r="H15" t="s">
         <v>306</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>269</v>
-      </c>
-      <c r="H15" t="s">
-        <v>307</v>
       </c>
       <c r="I15">
         <v>44654</v>
@@ -5861,22 +5858,22 @@
         <v>384811</v>
       </c>
       <c r="C16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D16" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" t="s">
         <v>308</v>
       </c>
-      <c r="D16" t="s">
-        <v>285</v>
-      </c>
-      <c r="E16" t="s">
-        <v>309</v>
-      </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I16">
         <v>44624</v>
@@ -5890,22 +5887,22 @@
         <v>384811</v>
       </c>
       <c r="C17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I17">
         <v>44433</v>
@@ -5919,22 +5916,22 @@
         <v>384811</v>
       </c>
       <c r="C18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18">
         <v>44491</v>
@@ -5945,25 +5942,25 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" t="s">
         <v>314</v>
-      </c>
-      <c r="C19" t="s">
-        <v>315</v>
       </c>
       <c r="D19" t="s">
         <v>34</v>
       </c>
       <c r="E19" t="s">
+        <v>315</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
         <v>316</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>317</v>
-      </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19">
         <v>44426</v>
@@ -5977,22 +5974,22 @@
         <v>384835</v>
       </c>
       <c r="C20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I20">
         <v>44638</v>
@@ -6006,22 +6003,22 @@
         <v>384835</v>
       </c>
       <c r="C21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F21">
         <v>0.49</v>
       </c>
       <c r="G21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I21">
         <v>44568</v>
@@ -6035,22 +6032,22 @@
         <v>384617</v>
       </c>
       <c r="C22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" t="s">
+        <v>284</v>
+      </c>
+      <c r="E22" t="s">
         <v>322</v>
       </c>
-      <c r="D22" t="s">
-        <v>285</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>268</v>
+      </c>
+      <c r="H22" t="s">
         <v>323</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>269</v>
-      </c>
-      <c r="H22" t="s">
-        <v>324</v>
       </c>
       <c r="I22">
         <v>44666</v>
@@ -6064,22 +6061,22 @@
         <v>384617</v>
       </c>
       <c r="C23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
+        <v>325</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>268</v>
+      </c>
+      <c r="H23" t="s">
         <v>326</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>269</v>
-      </c>
-      <c r="H23" t="s">
-        <v>327</v>
       </c>
       <c r="I23">
         <v>44519</v>
@@ -6093,22 +6090,22 @@
         <v>384617</v>
       </c>
       <c r="C24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
       <c r="E24" t="s">
+        <v>328</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>268</v>
+      </c>
+      <c r="H24" t="s">
         <v>329</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>269</v>
-      </c>
-      <c r="H24" t="s">
-        <v>330</v>
       </c>
       <c r="I24">
         <v>44596</v>
@@ -6122,22 +6119,22 @@
         <v>384814</v>
       </c>
       <c r="C25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25" t="s">
+        <v>331</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>268</v>
+      </c>
+      <c r="H25" t="s">
         <v>332</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>269</v>
-      </c>
-      <c r="H25" t="s">
-        <v>333</v>
       </c>
       <c r="I25">
         <v>44463</v>
@@ -6151,22 +6148,22 @@
         <v>384815</v>
       </c>
       <c r="C26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
       </c>
       <c r="E26" t="s">
+        <v>334</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>268</v>
+      </c>
+      <c r="H26" t="s">
         <v>335</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>269</v>
-      </c>
-      <c r="H26" t="s">
-        <v>336</v>
       </c>
       <c r="I26">
         <v>44712</v>
@@ -6180,22 +6177,22 @@
         <v>384816</v>
       </c>
       <c r="C27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I27">
         <v>44466</v>
@@ -6209,22 +6206,22 @@
         <v>384816</v>
       </c>
       <c r="C28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I28">
         <v>44389</v>
@@ -6238,22 +6235,22 @@
         <v>384816</v>
       </c>
       <c r="C29" t="s">
+        <v>340</v>
+      </c>
+      <c r="D29" t="s">
+        <v>284</v>
+      </c>
+      <c r="E29" t="s">
         <v>341</v>
       </c>
-      <c r="D29" t="s">
-        <v>285</v>
-      </c>
-      <c r="E29" t="s">
-        <v>342</v>
-      </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I29">
         <v>44694</v>
@@ -6267,22 +6264,22 @@
         <v>384816</v>
       </c>
       <c r="C30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I30">
         <v>44582</v>
@@ -6296,22 +6293,22 @@
         <v>384817</v>
       </c>
       <c r="C31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D31" t="s">
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F31">
         <v>0.1</v>
       </c>
       <c r="G31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I31">
         <v>44456</v>
@@ -6325,22 +6322,22 @@
         <v>384817</v>
       </c>
       <c r="C32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I32">
         <v>44417</v>
@@ -6354,22 +6351,22 @@
         <v>384817</v>
       </c>
       <c r="C33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
       </c>
       <c r="E33" t="s">
+        <v>350</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>268</v>
+      </c>
+      <c r="H33" t="s">
         <v>351</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>269</v>
-      </c>
-      <c r="H33" t="s">
-        <v>352</v>
       </c>
       <c r="I33">
         <v>44532</v>
@@ -6383,22 +6380,22 @@
         <v>384818</v>
       </c>
       <c r="C34" t="s">
+        <v>352</v>
+      </c>
+      <c r="D34" t="s">
         <v>353</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>354</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>268</v>
+      </c>
+      <c r="H34" t="s">
         <v>355</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>269</v>
-      </c>
-      <c r="H34" t="s">
-        <v>356</v>
       </c>
       <c r="I34">
         <v>44561</v>
@@ -6412,22 +6409,22 @@
         <v>384820</v>
       </c>
       <c r="C35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I35">
         <v>44463</v>
@@ -6441,22 +6438,22 @@
         <v>381821</v>
       </c>
       <c r="C36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D36" t="s">
         <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I36">
         <v>44456</v>
@@ -6491,282 +6488,282 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" t="s">
         <v>367</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>368</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>369</v>
-      </c>
-      <c r="D2" t="s">
-        <v>370</v>
       </c>
       <c r="E2">
         <v>825</v>
       </c>
       <c r="F2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D3" t="s">
         <v>372</v>
-      </c>
-      <c r="B3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D3" t="s">
-        <v>373</v>
       </c>
       <c r="E3">
         <v>830</v>
       </c>
       <c r="F3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" t="s">
         <v>375</v>
       </c>
-      <c r="B4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>376</v>
-      </c>
-      <c r="D4" t="s">
-        <v>377</v>
       </c>
       <c r="E4">
         <v>826</v>
       </c>
       <c r="F4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" t="s">
         <v>380</v>
       </c>
-      <c r="B5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C5" t="s">
-        <v>381</v>
-      </c>
       <c r="D5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E5">
         <v>829</v>
       </c>
       <c r="F5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" t="s">
         <v>383</v>
       </c>
-      <c r="B6" t="s">
-        <v>368</v>
-      </c>
-      <c r="C6" t="s">
-        <v>384</v>
-      </c>
       <c r="D6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E6">
         <v>825</v>
       </c>
       <c r="F6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" t="s">
         <v>386</v>
       </c>
-      <c r="B7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>387</v>
-      </c>
-      <c r="D7" t="s">
-        <v>388</v>
       </c>
       <c r="E7">
         <v>824</v>
       </c>
       <c r="F7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" t="s">
         <v>390</v>
       </c>
-      <c r="B8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C8" t="s">
-        <v>391</v>
-      </c>
       <c r="D8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E8">
         <v>824</v>
       </c>
       <c r="F8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E9">
         <v>823</v>
       </c>
       <c r="F9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" t="s">
         <v>368</v>
       </c>
-      <c r="C10" t="s">
-        <v>369</v>
-      </c>
       <c r="D10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E10">
         <v>823</v>
       </c>
       <c r="F10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" t="s">
         <v>397</v>
       </c>
-      <c r="B11" t="s">
-        <v>368</v>
-      </c>
-      <c r="C11" t="s">
-        <v>398</v>
-      </c>
       <c r="D11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E11">
         <v>826</v>
       </c>
       <c r="F11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E12">
         <v>824</v>
       </c>
       <c r="F12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>401</v>
+      </c>
+      <c r="B13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C13" t="s">
         <v>402</v>
       </c>
-      <c r="B13" t="s">
-        <v>368</v>
-      </c>
-      <c r="C13" t="s">
-        <v>403</v>
-      </c>
       <c r="D13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E13">
         <v>823</v>
       </c>
       <c r="F13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>404</v>
+      </c>
+      <c r="B14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C14" t="s">
         <v>405</v>
       </c>
-      <c r="B14" t="s">
-        <v>368</v>
-      </c>
-      <c r="C14" t="s">
-        <v>406</v>
-      </c>
       <c r="D14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E14">
         <v>821</v>
       </c>
       <c r="F14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
